--- a/parabolic/2025/09/05/parabolic.xlsx
+++ b/parabolic/2025/09/05/parabolic.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,7 +473,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>1822</t>
+          <t>1435</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -482,10 +482,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>859</v>
+        <v>194</v>
       </c>
       <c r="D2" t="n">
-        <v>154900</v>
+        <v>685300</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -496,7 +496,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>3359</t>
+          <t>1786</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>554</v>
+        <v>424</v>
       </c>
       <c r="D3" t="n">
-        <v>476900</v>
+        <v>201700</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -519,7 +519,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>3902</t>
+          <t>1822</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -528,10 +528,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>599</v>
+        <v>863</v>
       </c>
       <c r="D4" t="n">
-        <v>332400</v>
+        <v>200500</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -542,7 +542,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>6171</t>
+          <t>2667</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -551,10 +551,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>491</v>
+        <v>263</v>
       </c>
       <c r="D5" t="n">
-        <v>1141000</v>
+        <v>2911200</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -565,7 +565,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>6471</t>
+          <t>3359</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>782.5999755859375</v>
+        <v>549</v>
       </c>
       <c r="D6" t="n">
-        <v>435200</v>
+        <v>551000</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -588,7 +588,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>7201</t>
+          <t>3902</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -597,10 +597,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>342</v>
+        <v>604</v>
       </c>
       <c r="D7" t="n">
-        <v>20437400</v>
+        <v>401100</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
@@ -611,7 +611,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>7211</t>
+          <t>4583</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -620,10 +620,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>416.1000061035156</v>
+        <v>140</v>
       </c>
       <c r="D8" t="n">
-        <v>3501100</v>
+        <v>374300</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
@@ -634,7 +634,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>7256</t>
+          <t>4978</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -643,10 +643,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>113</v>
+        <v>191</v>
       </c>
       <c r="D9" t="n">
-        <v>957200</v>
+        <v>770700</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
@@ -657,7 +657,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>8550</t>
+          <t>6171</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -666,10 +666,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>486</v>
+        <v>503</v>
       </c>
       <c r="D10" t="n">
-        <v>710800</v>
+        <v>1405800</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -680,7 +680,7 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>8572</t>
+          <t>6228</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -689,10 +689,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>474.1000061035156</v>
+        <v>808</v>
       </c>
       <c r="D11" t="n">
-        <v>227400</v>
+        <v>110500</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
@@ -703,7 +703,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>8614</t>
+          <t>6471</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -712,10 +712,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>547</v>
+        <v>784.2999877929688</v>
       </c>
       <c r="D12" t="n">
-        <v>175400</v>
+        <v>702800</v>
       </c>
       <c r="E12" t="n">
         <v>1</v>
@@ -726,7 +726,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>9423</t>
+          <t>7201</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -735,16 +735,223 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>115</v>
+        <v>339.7999877929688</v>
       </c>
       <c r="D13" t="n">
-        <v>116400</v>
+        <v>27091700</v>
       </c>
       <c r="E13" t="n">
         <v>1</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>7211</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2025-09-05</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>414.5</v>
+      </c>
+      <c r="D14" t="n">
+        <v>5086400</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>7256</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2025-09-05</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>112</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1275700</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>7908</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2025-09-05</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>260</v>
+      </c>
+      <c r="D16" t="n">
+        <v>148300</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>7984</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2025-09-05</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>926.4000244140625</v>
+      </c>
+      <c r="D17" t="n">
+        <v>145400</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>8550</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2025-09-05</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>486</v>
+      </c>
+      <c r="D18" t="n">
+        <v>797100</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>8572</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2025-09-05</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>474.1000061035156</v>
+      </c>
+      <c r="D19" t="n">
+        <v>404400</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>8614</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2025-09-05</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>549</v>
+      </c>
+      <c r="D20" t="n">
+        <v>205400</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>9268</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2025-09-05</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>373</v>
+      </c>
+      <c r="D21" t="n">
+        <v>166700</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>9423</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2025-09-05</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>114</v>
+      </c>
+      <c r="D22" t="n">
+        <v>140500</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/parabolic/2025/09/05/parabolic.xlsx
+++ b/parabolic/2025/09/05/parabolic.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,10 +482,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D2" t="n">
-        <v>685300</v>
+        <v>938100</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -496,7 +496,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>1786</t>
+          <t>1514</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>424</v>
+        <v>632</v>
       </c>
       <c r="D3" t="n">
-        <v>201700</v>
+        <v>107400</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -519,7 +519,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>1822</t>
+          <t>1786</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -528,10 +528,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>863</v>
+        <v>424</v>
       </c>
       <c r="D4" t="n">
-        <v>200500</v>
+        <v>249600</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -542,7 +542,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2667</t>
+          <t>1822</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -551,10 +551,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>263</v>
+        <v>860</v>
       </c>
       <c r="D5" t="n">
-        <v>2911200</v>
+        <v>240700</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -565,7 +565,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>3359</t>
+          <t>1873</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>549</v>
+        <v>331</v>
       </c>
       <c r="D6" t="n">
-        <v>551000</v>
+        <v>102400</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -588,7 +588,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>3902</t>
+          <t>2667</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -597,10 +597,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>604</v>
+        <v>266</v>
       </c>
       <c r="D7" t="n">
-        <v>401100</v>
+        <v>3569100</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
@@ -611,7 +611,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>4583</t>
+          <t>3011</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -620,10 +620,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="D8" t="n">
-        <v>374300</v>
+        <v>114300</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
@@ -634,7 +634,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>4978</t>
+          <t>3359</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -643,10 +643,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>191</v>
+        <v>555</v>
       </c>
       <c r="D9" t="n">
-        <v>770700</v>
+        <v>574400</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
@@ -657,7 +657,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>6171</t>
+          <t>3902</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -666,10 +666,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>503</v>
+        <v>599</v>
       </c>
       <c r="D10" t="n">
-        <v>1405800</v>
+        <v>549800</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -680,7 +680,7 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>6228</t>
+          <t>4583</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -689,10 +689,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>808</v>
+        <v>141</v>
       </c>
       <c r="D11" t="n">
-        <v>110500</v>
+        <v>551600</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
@@ -703,7 +703,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>6471</t>
+          <t>4978</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -712,10 +712,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>784.2999877929688</v>
+        <v>196</v>
       </c>
       <c r="D12" t="n">
-        <v>702800</v>
+        <v>1321900</v>
       </c>
       <c r="E12" t="n">
         <v>1</v>
@@ -726,7 +726,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>7201</t>
+          <t>6171</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>339.7999877929688</v>
+        <v>479</v>
       </c>
       <c r="D13" t="n">
-        <v>27091700</v>
+        <v>1695100</v>
       </c>
       <c r="E13" t="n">
         <v>1</v>
@@ -749,7 +749,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>7211</t>
+          <t>6228</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -758,10 +758,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>414.5</v>
+        <v>807</v>
       </c>
       <c r="D14" t="n">
-        <v>5086400</v>
+        <v>146600</v>
       </c>
       <c r="E14" t="n">
         <v>1</v>
@@ -772,7 +772,7 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>7256</t>
+          <t>6471</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -781,10 +781,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>112</v>
+        <v>789.0999755859375</v>
       </c>
       <c r="D15" t="n">
-        <v>1275700</v>
+        <v>1081700</v>
       </c>
       <c r="E15" t="n">
         <v>1</v>
@@ -795,7 +795,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>7908</t>
+          <t>6779</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -804,10 +804,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>260</v>
+        <v>940</v>
       </c>
       <c r="D16" t="n">
-        <v>148300</v>
+        <v>105400</v>
       </c>
       <c r="E16" t="n">
         <v>1</v>
@@ -818,7 +818,7 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>7984</t>
+          <t>7201</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -827,10 +827,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>926.4000244140625</v>
+        <v>343.8999938964844</v>
       </c>
       <c r="D17" t="n">
-        <v>145400</v>
+        <v>32467500</v>
       </c>
       <c r="E17" t="n">
         <v>1</v>
@@ -841,7 +841,7 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>8550</t>
+          <t>7211</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -850,10 +850,10 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>486</v>
+        <v>417.7999877929688</v>
       </c>
       <c r="D18" t="n">
-        <v>797100</v>
+        <v>6446800</v>
       </c>
       <c r="E18" t="n">
         <v>1</v>
@@ -864,7 +864,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>8572</t>
+          <t>7256</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -873,10 +873,10 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>474.1000061035156</v>
+        <v>111</v>
       </c>
       <c r="D19" t="n">
-        <v>404400</v>
+        <v>1473000</v>
       </c>
       <c r="E19" t="n">
         <v>1</v>
@@ -887,7 +887,7 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>8614</t>
+          <t>7908</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -896,10 +896,10 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>549</v>
+        <v>261</v>
       </c>
       <c r="D20" t="n">
-        <v>205400</v>
+        <v>193500</v>
       </c>
       <c r="E20" t="n">
         <v>1</v>
@@ -910,7 +910,7 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>9268</t>
+          <t>7984</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -919,10 +919,10 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>373</v>
+        <v>929.5</v>
       </c>
       <c r="D21" t="n">
-        <v>166700</v>
+        <v>232000</v>
       </c>
       <c r="E21" t="n">
         <v>1</v>
@@ -933,7 +933,7 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>9423</t>
+          <t>8550</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -942,16 +942,131 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>114</v>
+        <v>481</v>
       </c>
       <c r="D22" t="n">
-        <v>140500</v>
+        <v>988900</v>
       </c>
       <c r="E22" t="n">
         <v>1</v>
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>8558</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2025-09-05</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>959</v>
+      </c>
+      <c r="D23" t="n">
+        <v>116100</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>8572</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2025-09-05</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>476.2999877929688</v>
+      </c>
+      <c r="D24" t="n">
+        <v>607100</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1</v>
+      </c>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>8614</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2025-09-05</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>552</v>
+      </c>
+      <c r="D25" t="n">
+        <v>422800</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1</v>
+      </c>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>9268</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2025-09-05</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>372</v>
+      </c>
+      <c r="D26" t="n">
+        <v>216400</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>9423</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2025-09-05</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>114</v>
+      </c>
+      <c r="D27" t="n">
+        <v>222000</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1</v>
+      </c>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/parabolic/2025/09/05/parabolic.xlsx
+++ b/parabolic/2025/09/05/parabolic.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,10 +482,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D2" t="n">
-        <v>938100</v>
+        <v>1109600</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="D3" t="n">
-        <v>107400</v>
+        <v>160100</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -528,10 +528,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="D4" t="n">
-        <v>249600</v>
+        <v>311700</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -551,10 +551,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="D5" t="n">
-        <v>240700</v>
+        <v>285700</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -577,7 +577,7 @@
         <v>331</v>
       </c>
       <c r="D6" t="n">
-        <v>102400</v>
+        <v>139700</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -597,10 +597,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="D7" t="n">
-        <v>3569100</v>
+        <v>5437400</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
@@ -620,10 +620,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D8" t="n">
-        <v>114300</v>
+        <v>123800</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
@@ -643,10 +643,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>555</v>
+        <v>560</v>
       </c>
       <c r="D9" t="n">
-        <v>574400</v>
+        <v>609400</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
@@ -666,10 +666,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="D10" t="n">
-        <v>549800</v>
+        <v>686000</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -680,7 +680,7 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>4583</t>
+          <t>4246</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -689,10 +689,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>141</v>
+        <v>780</v>
       </c>
       <c r="D11" t="n">
-        <v>551600</v>
+        <v>125000</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
@@ -703,7 +703,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>4978</t>
+          <t>4583</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -712,10 +712,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>196</v>
+        <v>142</v>
       </c>
       <c r="D12" t="n">
-        <v>1321900</v>
+        <v>670700</v>
       </c>
       <c r="E12" t="n">
         <v>1</v>
@@ -726,7 +726,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>6171</t>
+          <t>4978</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>479</v>
+        <v>196</v>
       </c>
       <c r="D13" t="n">
-        <v>1695100</v>
+        <v>1564000</v>
       </c>
       <c r="E13" t="n">
         <v>1</v>
@@ -749,7 +749,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>6228</t>
+          <t>6171</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -758,10 +758,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>807</v>
+        <v>488</v>
       </c>
       <c r="D14" t="n">
-        <v>146600</v>
+        <v>1826900</v>
       </c>
       <c r="E14" t="n">
         <v>1</v>
@@ -772,7 +772,7 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>6471</t>
+          <t>6228</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -781,10 +781,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>789.0999755859375</v>
+        <v>840</v>
       </c>
       <c r="D15" t="n">
-        <v>1081700</v>
+        <v>253000</v>
       </c>
       <c r="E15" t="n">
         <v>1</v>
@@ -795,7 +795,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>6779</t>
+          <t>6471</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -804,10 +804,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>940</v>
+        <v>796.5999755859375</v>
       </c>
       <c r="D16" t="n">
-        <v>105400</v>
+        <v>2181600</v>
       </c>
       <c r="E16" t="n">
         <v>1</v>
@@ -818,7 +818,7 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>7201</t>
+          <t>6779</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -827,10 +827,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>343.8999938964844</v>
+        <v>940</v>
       </c>
       <c r="D17" t="n">
-        <v>32467500</v>
+        <v>142300</v>
       </c>
       <c r="E17" t="n">
         <v>1</v>
@@ -841,7 +841,7 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>7211</t>
+          <t>7201</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -850,10 +850,10 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>417.7999877929688</v>
+        <v>345</v>
       </c>
       <c r="D18" t="n">
-        <v>6446800</v>
+        <v>40651300</v>
       </c>
       <c r="E18" t="n">
         <v>1</v>
@@ -864,7 +864,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>7256</t>
+          <t>7211</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -873,10 +873,10 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>111</v>
+        <v>418.8999938964844</v>
       </c>
       <c r="D19" t="n">
-        <v>1473000</v>
+        <v>9718300</v>
       </c>
       <c r="E19" t="n">
         <v>1</v>
@@ -887,7 +887,7 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>7908</t>
+          <t>7256</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -896,10 +896,10 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>261</v>
+        <v>113</v>
       </c>
       <c r="D20" t="n">
-        <v>193500</v>
+        <v>1757600</v>
       </c>
       <c r="E20" t="n">
         <v>1</v>
@@ -910,7 +910,7 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>7984</t>
+          <t>7593</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -919,10 +919,10 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>929.5</v>
+        <v>497</v>
       </c>
       <c r="D21" t="n">
-        <v>232000</v>
+        <v>252000</v>
       </c>
       <c r="E21" t="n">
         <v>1</v>
@@ -933,7 +933,7 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>8550</t>
+          <t>7908</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -942,10 +942,10 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>481</v>
+        <v>262</v>
       </c>
       <c r="D22" t="n">
-        <v>988900</v>
+        <v>231200</v>
       </c>
       <c r="E22" t="n">
         <v>1</v>
@@ -956,7 +956,7 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>8558</t>
+          <t>7940</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -965,10 +965,10 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>959</v>
+        <v>736</v>
       </c>
       <c r="D23" t="n">
-        <v>116100</v>
+        <v>170000</v>
       </c>
       <c r="E23" t="n">
         <v>1</v>
@@ -979,7 +979,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>8572</t>
+          <t>7984</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -988,10 +988,10 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>476.2999877929688</v>
+        <v>933.4000244140625</v>
       </c>
       <c r="D24" t="n">
-        <v>607100</v>
+        <v>593400</v>
       </c>
       <c r="E24" t="n">
         <v>1</v>
@@ -1002,7 +1002,7 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>8614</t>
+          <t>8018</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1011,10 +1011,10 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>552</v>
+        <v>657</v>
       </c>
       <c r="D25" t="n">
-        <v>422800</v>
+        <v>109600</v>
       </c>
       <c r="E25" t="n">
         <v>1</v>
@@ -1025,7 +1025,7 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>9268</t>
+          <t>8515</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1034,10 +1034,10 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>372</v>
+        <v>487</v>
       </c>
       <c r="D26" t="n">
-        <v>216400</v>
+        <v>3159600</v>
       </c>
       <c r="E26" t="n">
         <v>1</v>
@@ -1048,7 +1048,7 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>9423</t>
+          <t>8550</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1057,16 +1057,154 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>114</v>
+        <v>485</v>
       </c>
       <c r="D27" t="n">
-        <v>222000</v>
+        <v>1267900</v>
       </c>
       <c r="E27" t="n">
         <v>1</v>
       </c>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>8558</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2025-09-05</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>970</v>
+      </c>
+      <c r="D28" t="n">
+        <v>178000</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1</v>
+      </c>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>8572</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2025-09-05</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>478.6000061035156</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1191600</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1</v>
+      </c>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>8614</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2025-09-05</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>554</v>
+      </c>
+      <c r="D30" t="n">
+        <v>552400</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1</v>
+      </c>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>9268</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2025-09-05</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>372</v>
+      </c>
+      <c r="D31" t="n">
+        <v>264000</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1</v>
+      </c>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>9273</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2025-09-05</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>776</v>
+      </c>
+      <c r="D32" t="n">
+        <v>101900</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1</v>
+      </c>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>9423</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2025-09-05</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>115</v>
+      </c>
+      <c r="D33" t="n">
+        <v>242100</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1</v>
+      </c>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
